--- a/data/trans_camb/P43B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.673881063664317</v>
+        <v>-6.290792595353263</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.45887072473644</v>
+        <v>-19.30432275307957</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.6385222891192</v>
+        <v>16.86009174644087</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.649710866459569</v>
+        <v>2.11500283728813</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07939944844403952</v>
+        <v>-0.08903930637625672</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2597527181896027</v>
+        <v>-0.2655341567887201</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2877581992907002</v>
+        <v>0.2978648119086803</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03005161551706656</v>
+        <v>0.03876052282215684</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>8.623706782378616</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6311976309725131</v>
+        <v>0.6311976309725242</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.098559280757122</v>
+        <v>-2.697391668508898</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.60603517720585</v>
+        <v>-10.14222102465786</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.07291029722187</v>
+        <v>21.07250091018045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.77310197208842</v>
+        <v>11.77484830999586</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1341591141742086</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.009819549432404805</v>
+        <v>0.009819549432404977</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02996411396016497</v>
+        <v>-0.03839239182926061</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.145621103962505</v>
+        <v>-0.1409667450661909</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4183141542297543</v>
+        <v>0.3694100951511691</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2084186385001049</v>
+        <v>0.2172942051938632</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>2.032181700542568</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.065597320395661</v>
+        <v>1.065597320395684</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.910614783676374</v>
+        <v>-7.396100051408783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.076797431057493</v>
+        <v>-8.052605858210388</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.53677421950735</v>
+        <v>11.38926920088768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.79157329613978</v>
+        <v>10.31557472910688</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.02429984512308263</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.01274189696830411</v>
+        <v>0.01274189696830438</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09102430175866329</v>
+        <v>-0.08685805176092716</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09228843236543843</v>
+        <v>-0.09212168843649417</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.155330766718075</v>
+        <v>0.1446181220625592</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1376104609127698</v>
+        <v>0.1335006572807549</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>4.2034855172143</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5631647636425541</v>
+        <v>0.5631647636425208</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.543489115287308</v>
+        <v>-0.9667742820290275</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.763048048262564</v>
+        <v>-4.796829018799413</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.738619660215425</v>
+        <v>10.1174686301372</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.127282094147855</v>
+        <v>5.968359777320865</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.0490102613238519</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.0065661823078668</v>
+        <v>0.006566182307866411</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01638128971264046</v>
+        <v>-0.01052796588040796</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05381435708197181</v>
+        <v>-0.05362193468931721</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1195735562836371</v>
+        <v>0.1240551198064379</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07462009820536251</v>
+        <v>0.07197256720398118</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>3.554738705442739</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.97403220683241</v>
+        <v>1.974032206832432</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3073859937821871</v>
+        <v>-0.01114724941434368</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.832652187743512</v>
+        <v>-1.427246868394133</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.453460243816772</v>
+        <v>7.218502348183402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.687185475295236</v>
+        <v>6.089581423559188</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.03876715162632834</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.02152833505325004</v>
+        <v>0.02152833505325028</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.003399612569918751</v>
+        <v>-9.471828110360048e-05</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01941937069645491</v>
+        <v>-0.01520583593738774</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08469724491438685</v>
+        <v>0.08132956169949986</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.06348068883647155</v>
+        <v>0.0684281114204949</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>-0.6668017931097059</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.20077003256046</v>
+        <v>-0.2007700325604489</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.219093824889109</v>
+        <v>-4.335464287987939</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.989229369272133</v>
+        <v>-3.545939117873166</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.096586635578221</v>
+        <v>3.239135596153397</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.360650585599533</v>
+        <v>3.643465894552569</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>-0.00726145345292581</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.00218638021259838</v>
+        <v>-0.002186380212598259</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0452354449276892</v>
+        <v>-0.04607539136143253</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04262036045074134</v>
+        <v>-0.03862524924781009</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.03449447141659769</v>
+        <v>0.03630719528555839</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.03702064668696699</v>
+        <v>0.03977588580397307</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>1.972995167552638</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-3.737168393534718</v>
+        <v>-3.737168393534729</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3979761216855189</v>
+        <v>-0.5951949364510047</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.122486199216212</v>
+        <v>-6.163542536491414</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.383616987556412</v>
+        <v>4.430896697559751</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.304839676765463</v>
+        <v>-1.279819699744054</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>0.02303169834707613</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.04362572018809688</v>
+        <v>-0.04362572018809701</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.004526074497496715</v>
+        <v>-0.006806558799363102</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07095400825730058</v>
+        <v>-0.07078588237523464</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.05194631846688012</v>
+        <v>0.05256405768375238</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.01549308665049198</v>
+        <v>-0.01516150084177104</v>
       </c>
     </row>
     <row r="46">
